--- a/docs/VCO Pickoff Meas.xlsx
+++ b/docs/VCO Pickoff Meas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shann\Dropbox\moog\twangilizer\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DCD844-5199-4195-8005-5F459A393DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF084D42-8EFA-4CE1-A12F-5A3AA0BB2A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9A44819-7255-431E-8261-AA0EFED88214}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Freq</t>
   </si>
@@ -44,16 +44,7 @@
     <t>Ideal</t>
   </si>
   <si>
-    <t>Pickoff</t>
-  </si>
-  <si>
-    <t>Measured</t>
-  </si>
-  <si>
     <t>Planned</t>
-  </si>
-  <si>
-    <t>Pick Twang</t>
   </si>
   <si>
     <t>Twang Slope</t>
@@ -67,11 +58,26 @@
   <si>
     <t>Gain</t>
   </si>
+  <si>
+    <t>PBJ Pickoff</t>
+  </si>
+  <si>
+    <t>Twang Pickoff</t>
+  </si>
+  <si>
+    <t>vs freq</t>
+  </si>
+  <si>
+    <t>Freq Gain</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000E+00"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -101,8 +107,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -135,6 +142,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Pickoffs</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> and Ideal/Planned Response</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -168,7 +205,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -275,7 +312,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-031F-48CD-94EC-E84017C551B6}"/>
@@ -387,7 +424,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-031F-48CD-94EC-E84017C551B6}"/>
@@ -499,7 +536,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-031F-48CD-94EC-E84017C551B6}"/>
@@ -579,39 +616,39 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>15.179999999999993</c:v>
+                  <c:v>14.669999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9600000000000009</c:v>
+                  <c:v>9.740000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9200000000000017</c:v>
+                  <c:v>4.9799999999999969</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.9999999999998721E-2</c:v>
+                  <c:v>0.39000000000000057</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-4.8000000000000007</c:v>
+                  <c:v>-4.2000000000000028</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-7.5</c:v>
+                  <c:v>-6.75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-9.120000000000001</c:v>
+                  <c:v>-8.2800000000000011</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-10.739999999999998</c:v>
+                  <c:v>-9.8099999999999987</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-11.64</c:v>
+                  <c:v>-10.66</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-12.827999999999999</c:v>
+                  <c:v>-11.782</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-031F-48CD-94EC-E84017C551B6}"/>
@@ -851,6 +888,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Pickoff Detail</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1328,6 +1390,834 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7.62</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-9.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-9.8800000000000008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-10.17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-10.17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8BC3-4653-AC2B-5B292C5013D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.5099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95399999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8BC3-4653-AC2B-5B292C5013D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$4:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.59</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.96199999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8BC3-4653-AC2B-5B292C5013D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$4:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>14.669999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.740000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9799999999999969</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.39000000000000057</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.2000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-6.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-8.2800000000000011</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-9.8099999999999987</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-10.66</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-11.782</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8BC3-4653-AC2B-5B292C5013D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$4:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>14.654589371980677</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.8236714975845416</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9927536231884062</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16183574879227081</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.6690821256038646</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7.0845410628019323</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-8.2922705314009661</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-9.0169082125603861</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-9.2584541062801939</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-9.4033816425120769</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8BC3-4653-AC2B-5B292C5013D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="661743560"/>
+        <c:axId val="661744264"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="661743560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="661744264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="661744264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="661743560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1408,6 +2298,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1925,6 +2855,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2481,15 +3927,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2509,6 +3955,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>195262</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{600250BD-F7DC-8CDB-CEA9-0A7741FEA5DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2814,20 +4296,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D77CD04A-2B54-47DB-8FC8-91FFBF6577AF}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" customWidth="1"/>
     <col min="9" max="9" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2835,31 +4318,37 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>20000</v>
       </c>
@@ -2873,30 +4362,38 @@
         <v>7.8</v>
       </c>
       <c r="E2">
-        <f>(C2*18)-30</f>
-        <v>113.82</v>
+        <f>(C2*17)-28</f>
+        <v>107.83000000000001</v>
       </c>
       <c r="F2">
-        <v>10.3</v>
-      </c>
-      <c r="G2">
+        <f>A2/$L$2 -9.5</f>
+        <v>87.118357487922708</v>
+      </c>
+      <c r="G2" s="1">
         <f>(C4-C8)/4000</f>
         <v>2.7749999999999997E-4</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <f>(D4-D8)/4000</f>
         <v>2.8499999999999999E-4</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <f>(E4-E8)/4000</f>
-        <v>4.9949999999999986E-3</v>
+        <v>4.7174999999999995E-3</v>
       </c>
       <c r="J2">
         <f>I2/H2</f>
-        <v>17.526315789473681</v>
+        <v>16.552631578947366</v>
+      </c>
+      <c r="K2">
+        <f>(A6-A8)/(E6-E8)</f>
+        <v>217.86492374727669</v>
+      </c>
+      <c r="L2">
+        <v>207</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10000</v>
       </c>
@@ -2910,14 +4407,15 @@
         <v>4.1399999999999997</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E13" si="0">(C3*18)-30</f>
-        <v>43.980000000000004</v>
+        <f t="shared" ref="E3:E13" si="0">(C3*17)-28</f>
+        <v>41.870000000000005</v>
       </c>
       <c r="F3">
-        <v>10.3</v>
+        <f t="shared" ref="F3:F13" si="1">A3/$L$2 -9.5</f>
+        <v>38.809178743961354</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5000</v>
       </c>
@@ -2932,13 +4430,14 @@
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>15.179999999999993</v>
+        <v>14.669999999999995</v>
       </c>
       <c r="F4">
-        <v>10.3</v>
+        <f t="shared" si="1"/>
+        <v>14.654589371980677</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4000</v>
       </c>
@@ -2953,13 +4452,14 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>9.9600000000000009</v>
+        <v>9.740000000000002</v>
       </c>
       <c r="F5">
-        <v>10.3</v>
+        <f t="shared" si="1"/>
+        <v>9.8236714975845416</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3000</v>
       </c>
@@ -2974,13 +4474,14 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>4.9200000000000017</v>
+        <v>4.9799999999999969</v>
       </c>
       <c r="F6">
-        <v>5.95</v>
+        <f t="shared" si="1"/>
+        <v>4.9927536231884062</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2000</v>
       </c>
@@ -2995,13 +4496,14 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>5.9999999999998721E-2</v>
+        <v>0.39000000000000057</v>
       </c>
       <c r="F7">
-        <v>0.52600000000000002</v>
+        <f t="shared" si="1"/>
+        <v>0.16183574879227081</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1000</v>
       </c>
@@ -3016,13 +4518,14 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>-4.8000000000000007</v>
+        <v>-4.2000000000000028</v>
       </c>
       <c r="F8">
-        <v>-4.9000000000000004</v>
+        <f t="shared" si="1"/>
+        <v>-4.6690821256038646</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>500</v>
       </c>
@@ -3037,13 +4540,14 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>-7.5</v>
+        <v>-6.75</v>
       </c>
       <c r="F9">
-        <v>-7.88</v>
+        <f t="shared" si="1"/>
+        <v>-7.0845410628019323</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>250</v>
       </c>
@@ -3058,13 +4562,14 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>-9.120000000000001</v>
+        <v>-8.2800000000000011</v>
       </c>
       <c r="F10">
-        <v>-9.7799999999999994</v>
+        <f t="shared" si="1"/>
+        <v>-8.2922705314009661</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>100</v>
       </c>
@@ -3079,13 +4584,14 @@
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>-10.739999999999998</v>
+        <v>-9.8099999999999987</v>
       </c>
       <c r="F11">
-        <v>-10.14</v>
+        <f t="shared" si="1"/>
+        <v>-9.0169082125603861</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>50</v>
       </c>
@@ -3100,13 +4606,14 @@
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>-11.64</v>
+        <v>-10.66</v>
       </c>
       <c r="F12">
-        <v>-10.19</v>
+        <f t="shared" si="1"/>
+        <v>-9.2584541062801939</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>20</v>
       </c>
@@ -3121,10 +4628,11 @@
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>-12.827999999999999</v>
+        <v>-11.782</v>
       </c>
       <c r="F13">
-        <v>-10.19</v>
+        <f t="shared" si="1"/>
+        <v>-9.4033816425120769</v>
       </c>
     </row>
   </sheetData>

--- a/docs/VCO Pickoff Meas.xlsx
+++ b/docs/VCO Pickoff Meas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shann\Dropbox\moog\twangilizer\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF084D42-8EFA-4CE1-A12F-5A3AA0BB2A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B172E26-0CF8-4203-806D-E12033C8300F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9A44819-7255-431E-8261-AA0EFED88214}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Freq</t>
   </si>
@@ -50,16 +50,10 @@
     <t>Twang Slope</t>
   </si>
   <si>
-    <t>PBJ Slope</t>
-  </si>
-  <si>
     <t>Planned Slope</t>
   </si>
   <si>
     <t>Gain</t>
-  </si>
-  <si>
-    <t>PBJ Pickoff</t>
   </si>
   <si>
     <t>Twang Pickoff</t>
@@ -203,13 +197,26 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.1861500827227162E-2"/>
+          <c:y val="0.10067179951164262"/>
+          <c:w val="0.89156443358770165"/>
+          <c:h val="0.79043161799021011"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Ideal</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -322,6 +329,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Pickoff</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -392,34 +402,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.5099999999999998</c:v>
+                  <c:v>7.68</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2200000000000002</c:v>
+                  <c:v>6.18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.94</c:v>
+                  <c:v>4.7699999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.67</c:v>
+                  <c:v>3.47</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4</c:v>
+                  <c:v>2.27</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>1.71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.43</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1.25</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>1.1599999999999999</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>1.07</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.02</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.95399999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -432,120 +442,11 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="3"/>
           <c:order val="2"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$4:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$4:$D$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>2.59</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.2999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0099999999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.74</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.45</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.1100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.05</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.96199999999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-031F-48CD-94EC-E84017C551B6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:tx>
+            <c:v>Planned</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -611,39 +512,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$4:$E$13</c:f>
+              <c:f>Sheet1!$D$4:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>14.669999999999995</c:v>
+                  <c:v>16.72</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.740000000000002</c:v>
+                  <c:v>10.719999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9799999999999969</c:v>
+                  <c:v>5.0799999999999983</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.39000000000000057</c:v>
+                  <c:v>-0.11999999999999922</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-4.2000000000000028</c:v>
+                  <c:v>-4.92</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-6.75</c:v>
+                  <c:v>-7.16</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>-8.2800000000000011</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-9.8099999999999987</c:v>
+                  <c:v>-9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-10.66</c:v>
+                  <c:v>-9.36</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-11.782</c:v>
+                  <c:v>-9.7199999999999989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -908,7 +809,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Pickoff Detail</a:t>
+              <a:t>VCO Pickoff</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -951,6 +852,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Pickoff</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -961,54 +865,48 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$4:$A$13</c:f>
+              <c:f>Sheet1!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>5000</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>4000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>3000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>2000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>500</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>250</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
@@ -1016,39 +914,45 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$13</c:f>
+              <c:f>Sheet1!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2.5099999999999998</c:v>
+                  <c:v>8.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2200000000000002</c:v>
+                  <c:v>8.76</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.94</c:v>
+                  <c:v>7.68</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.67</c:v>
+                  <c:v>6.18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4</c:v>
+                  <c:v>4.7699999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>3.47</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.27</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.71</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.43</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1.25</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>1.1599999999999999</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>1.07</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.02</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.95399999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1056,119 +960,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D348-45EE-A35C-69C6DD0F51B5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$4:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$4:$D$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>2.59</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.2999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0099999999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.74</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.45</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.1100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.05</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.96199999999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D348-45EE-A35C-69C6DD0F51B5}"/>
+              <c16:uniqueId val="{00000001-92D0-4B38-9664-1347E61AE048}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1180,11 +972,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1167830400"/>
-        <c:axId val="622341528"/>
+        <c:axId val="525553624"/>
+        <c:axId val="525552920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1167830400"/>
+        <c:axId val="525553624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1241,12 +1033,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="622341528"/>
+        <c:crossAx val="525552920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="622341528"/>
+        <c:axId val="525552920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1303,7 +1095,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1167830400"/>
+        <c:crossAx val="525553624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1405,6 +1197,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Output Voltage</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1438,258 +1255,25 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="2"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>vs Input</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$4:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$4:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>10.199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-7.62</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-9.06</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-9.8800000000000008</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-10.17</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-10.17</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8BC3-4653-AC2B-5B292C5013D8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$4:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$4:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>2.5099999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.2200000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.94</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.67</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.1599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.07</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.02</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.95399999999999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8BC3-4653-AC2B-5B292C5013D8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -1737,71 +1321,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.59</c:v>
+                  <c:v>16.72</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2999999999999998</c:v>
+                  <c:v>10.719999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0099999999999998</c:v>
+                  <c:v>5.0799999999999983</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.74</c:v>
+                  <c:v>-0.11999999999999922</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.45</c:v>
+                  <c:v>-4.92</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3</c:v>
+                  <c:v>-7.16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2</c:v>
+                  <c:v>-8.2800000000000011</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1100000000000001</c:v>
+                  <c:v>-9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.05</c:v>
+                  <c:v>-9.36</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.96199999999999997</c:v>
+                  <c:v>-9.7199999999999989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8BC3-4653-AC2B-5B292C5013D8}"/>
+              <c16:uniqueId val="{00000002-8AEE-4AD2-9A8E-9AFD20DD67BB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>vs Freq</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -1849,154 +1426,42 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>14.669999999999995</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.740000000000002</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9799999999999969</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.39000000000000057</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-4.2000000000000028</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-6.75</c:v>
+                  <c:v>-7.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-8.2800000000000011</c:v>
+                  <c:v>-8.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-9.8099999999999987</c:v>
+                  <c:v>-9.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-10.66</c:v>
+                  <c:v>-9.75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-11.782</c:v>
+                  <c:v>-9.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-8BC3-4653-AC2B-5B292C5013D8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$4:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$F$4:$F$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>14.654589371980677</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.8236714975845416</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.9927536231884062</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.16183574879227081</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-4.6690821256038646</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-7.0845410628019323</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-8.2922705314009661</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-9.0169082125603861</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-9.2584541062801939</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-9.4033816425120769</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-8BC3-4653-AC2B-5B292C5013D8}"/>
+              <c16:uniqueId val="{00000003-8AEE-4AD2-9A8E-9AFD20DD67BB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2008,11 +1473,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="661743560"/>
-        <c:axId val="661744264"/>
+        <c:axId val="917761208"/>
+        <c:axId val="917760152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="661743560"/>
+        <c:axId val="917761208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2069,12 +1534,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="661744264"/>
+        <c:crossAx val="917760152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="661744264"/>
+        <c:axId val="917760152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2131,7 +1596,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="661743560"/>
+        <c:crossAx val="917761208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3891,15 +3356,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>14286</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>157161</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>561976</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3926,23 +3391,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{757243B0-BC0C-BA1D-F4C8-254302090EF3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E6BE2DE-20D8-31BD-EE7E-626563E5A196}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3962,23 +3427,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>195262</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>100011</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{600250BD-F7DC-8CDB-CEA9-0A7741FEA5DE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22565933-A54C-16CC-4D48-FF62338DDEF8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4000,9 +3465,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4040,7 +3505,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4146,7 +3611,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4288,7 +3753,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4296,21 +3761,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D77CD04A-2B54-47DB-8FC8-91FFBF6577AF}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4318,37 +3783,31 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
       <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>20000</v>
       </c>
@@ -4356,44 +3815,37 @@
         <v>10.199999999999999</v>
       </c>
       <c r="C2">
-        <v>7.99</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D2">
-        <v>7.8</v>
+        <f>(C2*4)-14</f>
+        <v>21.200000000000003</v>
       </c>
       <c r="E2">
-        <f>(C2*17)-28</f>
-        <v>107.83000000000001</v>
-      </c>
-      <c r="F2">
-        <f>A2/$L$2 -9.5</f>
-        <v>87.118357487922708</v>
+        <f>A2/$J$2 -10</f>
+        <v>90</v>
+      </c>
+      <c r="F2" s="1">
+        <f>(C4-C8)/4000</f>
+        <v>1.3525E-3</v>
       </c>
       <c r="G2" s="1">
-        <f>(C4-C8)/4000</f>
-        <v>2.7749999999999997E-4</v>
+        <f>(D4-D8)/4000</f>
+        <v>5.4099999999999999E-3</v>
       </c>
       <c r="H2" s="1">
-        <f>(D4-D8)/4000</f>
-        <v>2.8499999999999999E-4</v>
-      </c>
-      <c r="I2" s="1">
-        <f>(E4-E8)/4000</f>
-        <v>4.7174999999999995E-3</v>
+        <f>G2/F2</f>
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <f>(A6-A8)/(D6-D8)</f>
+        <v>200.00000000000003</v>
       </c>
       <c r="J2">
-        <f>I2/H2</f>
-        <v>16.552631578947366</v>
-      </c>
-      <c r="K2">
-        <f>(A6-A8)/(E6-E8)</f>
-        <v>217.86492374727669</v>
-      </c>
-      <c r="L2">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10000</v>
       </c>
@@ -4401,21 +3853,18 @@
         <v>10.199999999999999</v>
       </c>
       <c r="C3">
-        <v>4.1100000000000003</v>
+        <v>8.76</v>
       </c>
       <c r="D3">
-        <v>4.1399999999999997</v>
+        <f t="shared" ref="D3:D13" si="0">(C3*4)-14</f>
+        <v>21.04</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E13" si="0">(C3*17)-28</f>
-        <v>41.870000000000005</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F13" si="1">A3/$L$2 -9.5</f>
-        <v>38.809178743961354</v>
+        <f t="shared" ref="E3:E13" si="1">A3/$J$2 -10</f>
+        <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5000</v>
       </c>
@@ -4423,21 +3872,18 @@
         <v>10.199999999999999</v>
       </c>
       <c r="C4">
-        <v>2.5099999999999998</v>
+        <v>7.68</v>
       </c>
       <c r="D4">
-        <v>2.59</v>
+        <f t="shared" si="0"/>
+        <v>16.72</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
-        <v>14.669999999999995</v>
-      </c>
-      <c r="F4">
         <f t="shared" si="1"/>
-        <v>14.654589371980677</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4000</v>
       </c>
@@ -4445,21 +3891,18 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>2.2200000000000002</v>
+        <v>6.18</v>
       </c>
       <c r="D5">
-        <v>2.2999999999999998</v>
+        <f t="shared" si="0"/>
+        <v>10.719999999999999</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
-        <v>9.740000000000002</v>
-      </c>
-      <c r="F5">
         <f t="shared" si="1"/>
-        <v>9.8236714975845416</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3000</v>
       </c>
@@ -4467,21 +3910,18 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>1.94</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="D6">
-        <v>2.0099999999999998</v>
+        <f t="shared" si="0"/>
+        <v>5.0799999999999983</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
-        <v>4.9799999999999969</v>
-      </c>
-      <c r="F6">
         <f t="shared" si="1"/>
-        <v>4.9927536231884062</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2000</v>
       </c>
@@ -4489,21 +3929,18 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1.67</v>
+        <v>3.47</v>
       </c>
       <c r="D7">
-        <v>1.74</v>
+        <f t="shared" si="0"/>
+        <v>-0.11999999999999922</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
-        <v>0.39000000000000057</v>
-      </c>
-      <c r="F7">
         <f t="shared" si="1"/>
-        <v>0.16183574879227081</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1000</v>
       </c>
@@ -4511,21 +3948,18 @@
         <v>-5</v>
       </c>
       <c r="C8">
-        <v>1.4</v>
+        <v>2.27</v>
       </c>
       <c r="D8">
-        <v>1.45</v>
+        <f t="shared" si="0"/>
+        <v>-4.92</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
-        <v>-4.2000000000000028</v>
-      </c>
-      <c r="F8">
         <f t="shared" si="1"/>
-        <v>-4.6690821256038646</v>
+        <v>-5</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>500</v>
       </c>
@@ -4533,21 +3967,18 @@
         <v>-7.62</v>
       </c>
       <c r="C9">
-        <v>1.25</v>
+        <v>1.71</v>
       </c>
       <c r="D9">
-        <v>1.3</v>
+        <f t="shared" si="0"/>
+        <v>-7.16</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
-        <v>-6.75</v>
-      </c>
-      <c r="F9">
         <f t="shared" si="1"/>
-        <v>-7.0845410628019323</v>
+        <v>-7.5</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>250</v>
       </c>
@@ -4555,21 +3986,18 @@
         <v>-9.06</v>
       </c>
       <c r="C10">
-        <v>1.1599999999999999</v>
+        <v>1.43</v>
       </c>
       <c r="D10">
-        <v>1.2</v>
-      </c>
-      <c r="E10">
         <f t="shared" si="0"/>
         <v>-8.2800000000000011</v>
       </c>
-      <c r="F10">
+      <c r="E10">
         <f t="shared" si="1"/>
-        <v>-8.2922705314009661</v>
+        <v>-8.75</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>100</v>
       </c>
@@ -4577,21 +4005,18 @@
         <v>-9.8800000000000008</v>
       </c>
       <c r="C11">
-        <v>1.07</v>
+        <v>1.25</v>
       </c>
       <c r="D11">
-        <v>1.1100000000000001</v>
+        <f t="shared" si="0"/>
+        <v>-9</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
-        <v>-9.8099999999999987</v>
-      </c>
-      <c r="F11">
         <f t="shared" si="1"/>
-        <v>-9.0169082125603861</v>
+        <v>-9.5</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>50</v>
       </c>
@@ -4599,21 +4024,18 @@
         <v>-10.17</v>
       </c>
       <c r="C12">
-        <v>1.02</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="D12">
-        <v>1.05</v>
+        <f t="shared" si="0"/>
+        <v>-9.36</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
-        <v>-10.66</v>
-      </c>
-      <c r="F12">
         <f t="shared" si="1"/>
-        <v>-9.2584541062801939</v>
+        <v>-9.75</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>20</v>
       </c>
@@ -4621,18 +4043,15 @@
         <v>-10.17</v>
       </c>
       <c r="C13">
-        <v>0.95399999999999996</v>
+        <v>1.07</v>
       </c>
       <c r="D13">
-        <v>0.96199999999999997</v>
+        <f t="shared" si="0"/>
+        <v>-9.7199999999999989</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
-        <v>-11.782</v>
-      </c>
-      <c r="F13">
         <f t="shared" si="1"/>
-        <v>-9.4033816425120769</v>
+        <v>-9.9</v>
       </c>
     </row>
   </sheetData>

--- a/docs/VCO Pickoff Meas.xlsx
+++ b/docs/VCO Pickoff Meas.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shann\Dropbox\moog\twangilizer\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B172E26-0CF8-4203-806D-E12033C8300F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7B20A8-BBAD-444E-83AD-676C5DF0F670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9A44819-7255-431E-8261-AA0EFED88214}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$13</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$2:$C$13</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -156,7 +160,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Pickoffs</a:t>
+              <a:t>Pickoff</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -517,34 +521,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>16.72</c:v>
+                  <c:v>17.64</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.719999999999999</c:v>
+                  <c:v>11.265000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0799999999999983</c:v>
+                  <c:v>5.2724999999999973</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.11999999999999922</c:v>
+                  <c:v>-0.2524999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-4.92</c:v>
+                  <c:v>-5.3524999999999991</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-7.16</c:v>
+                  <c:v>-7.7324999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-8.2800000000000011</c:v>
+                  <c:v>-8.9224999999999994</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-9</c:v>
+                  <c:v>-9.6875</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-9.36</c:v>
+                  <c:v>-10.07</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-9.7199999999999989</c:v>
+                  <c:v>-10.452500000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -822,26 +826,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -865,48 +849,54 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$13</c:f>
+              <c:f>Sheet1!$A$4:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>20000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2000</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1000</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>500</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>250</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
@@ -914,44 +904,38 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$13</c:f>
+              <c:f>Sheet1!$C$4:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8.8000000000000007</c:v>
+                  <c:v>7.68</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.76</c:v>
+                  <c:v>6.18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.68</c:v>
+                  <c:v>4.7699999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.18</c:v>
+                  <c:v>3.47</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.7699999999999996</c:v>
+                  <c:v>2.27</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.47</c:v>
+                  <c:v>1.71</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.27</c:v>
+                  <c:v>1.43</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.71</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.43</c:v>
+                  <c:v>1.1599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.1599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>1.07</c:v>
                 </c:pt>
               </c:numCache>
@@ -960,7 +944,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-92D0-4B38-9664-1347E61AE048}"/>
+              <c16:uniqueId val="{00000001-19A0-4641-B763-E8768C7128D4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1099,13 +1083,6 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
@@ -1140,30 +1117,9 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -1321,34 +1277,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>16.72</c:v>
+                  <c:v>17.64</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.719999999999999</c:v>
+                  <c:v>11.265000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0799999999999983</c:v>
+                  <c:v>5.2724999999999973</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.11999999999999922</c:v>
+                  <c:v>-0.2524999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-4.92</c:v>
+                  <c:v>-5.3524999999999991</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-7.16</c:v>
+                  <c:v>-7.7324999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-8.2800000000000011</c:v>
+                  <c:v>-8.9224999999999994</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-9</c:v>
+                  <c:v>-9.6875</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-9.36</c:v>
+                  <c:v>-10.07</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-9.7199999999999989</c:v>
+                  <c:v>-10.452500000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1763,46 +1719,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2320,522 +2236,6 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3392,15 +2792,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:colOff>295275</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>185738</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3764,7 +3164,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3818,8 +3218,8 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="D2">
-        <f>(C2*4)-14</f>
-        <v>21.200000000000003</v>
+        <f>(C2*4.25)-15</f>
+        <v>22.400000000000006</v>
       </c>
       <c r="E2">
         <f>A2/$J$2 -10</f>
@@ -3831,15 +3231,15 @@
       </c>
       <c r="G2" s="1">
         <f>(D4-D8)/4000</f>
-        <v>5.4099999999999999E-3</v>
+        <v>5.7481249999999998E-3</v>
       </c>
       <c r="H2" s="1">
         <f>G2/F2</f>
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="I2">
         <f>(A6-A8)/(D6-D8)</f>
-        <v>200.00000000000003</v>
+        <v>188.23529411764713</v>
       </c>
       <c r="J2">
         <v>200</v>
@@ -3856,8 +3256,8 @@
         <v>8.76</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D13" si="0">(C3*4)-14</f>
-        <v>21.04</v>
+        <f t="shared" ref="D3:D13" si="0">(C3*4.25)-15</f>
+        <v>22.229999999999997</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E13" si="1">A3/$J$2 -10</f>
@@ -3876,7 +3276,7 @@
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>16.72</v>
+        <v>17.64</v>
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
@@ -3895,7 +3295,7 @@
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>10.719999999999999</v>
+        <v>11.265000000000001</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
@@ -3914,7 +3314,7 @@
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>5.0799999999999983</v>
+        <v>5.2724999999999973</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
@@ -3933,7 +3333,7 @@
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>-0.11999999999999922</v>
+        <v>-0.2524999999999995</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
@@ -3952,7 +3352,7 @@
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>-4.92</v>
+        <v>-5.3524999999999991</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
@@ -3971,7 +3371,7 @@
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>-7.16</v>
+        <v>-7.7324999999999999</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
@@ -3990,7 +3390,7 @@
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>-8.2800000000000011</v>
+        <v>-8.9224999999999994</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
@@ -4009,7 +3409,7 @@
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>-9</v>
+        <v>-9.6875</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
@@ -4028,7 +3428,7 @@
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>-9.36</v>
+        <v>-10.07</v>
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
@@ -4047,7 +3447,7 @@
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>-9.7199999999999989</v>
+        <v>-10.452500000000001</v>
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
